--- a/PABMI/0 PABI/ROLES/Casos de Prueba Roles Inmuebles.xlsx
+++ b/PABMI/0 PABI/ROLES/Casos de Prueba Roles Inmuebles.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Historias Usuario" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Roles Baja Compra Directa " sheetId="7" r:id="rId5"/>
     <sheet name="Roles Baja licitación pública" sheetId="8" r:id="rId6"/>
     <sheet name="Roles Permuta " sheetId="10" r:id="rId7"/>
+    <sheet name="Roles comodato  (2)" sheetId="12" r:id="rId8"/>
+    <sheet name="Roles modificaciones " sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -396,8 +398,126 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Iris Lechuga</author>
+  </authors>
+  <commentList>
+    <comment ref="F4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Iris Lechuga:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Verificar que cada paso del proceso haya sido completado correctamente por el rol asignado antes de avanzar al siguiente paso.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Iris Lechuga:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+En cada paso, solo el usuario asignado a ese rol debe tener habilitados los botones y campos necesarios para completar la tarea.
+Los demás usuarios no tendrán acceso a estos campos hasta que el proceso avance al siguiente paso correspondiente a su rol.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Iris Lechuga</author>
+  </authors>
+  <commentList>
+    <comment ref="F4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Iris Lechuga:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Verificar que cada paso del proceso haya sido completado correctamente por el rol asignado antes de avanzar al siguiente paso.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Iris Lechuga:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+En cada paso, solo el usuario asignado a ese rol debe tener habilitados los botones y campos necesarios para completar la tarea.
+Los demás usuarios no tendrán acceso a estos campos hasta que el proceso avance al siguiente paso correspondiente a su rol.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="165">
   <si>
     <t>ID</t>
   </si>
@@ -871,6 +991,66 @@
   </si>
   <si>
     <t>Cada paso debe completarse en orden secuencial y por el rol adecuado antes de avanzar al siguiente.</t>
+  </si>
+  <si>
+    <t>HISTORIA: Roles en Comodato  de un bien inmueble.</t>
+  </si>
+  <si>
+    <t>HISTORIA: Roles en Modificaciones  de un bien inmueble.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Roles en comodato de un bien inmueble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrador del Sistema </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asignar Roles especificos a cada paso del proceso de comodato de un bien inmueble </t>
+  </si>
+  <si>
+    <t>Recepción de la Solicitud</t>
+  </si>
+  <si>
+    <t>Datos Solicitante</t>
+  </si>
+  <si>
+    <t>Integración del expediente de comodato</t>
+  </si>
+  <si>
+    <t>Preparar expediente del congreso</t>
+  </si>
+  <si>
+    <t>Referencia SIREGOB y Finalizar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Roles en modificaciones de un bien inmueble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actualización de Inmueble </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validación </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordinadora de Bienes Inmuebles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">leonor.gonzales </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Administrador del sistema</t>
+  </si>
+  <si>
+    <t>Asignar roles específicos a cada paso del proceso de modificación de un bien inmueble</t>
+  </si>
+  <si>
+    <t>Solo los usuarios con el rol asignado deben tener habilitados los botones y campos en cada paso.</t>
+  </si>
+  <si>
+    <t>El componente de carga de documentos debe ser editable solo por el rol asignado.</t>
+  </si>
+  <si>
+    <t>Cada paso debe completarse secuencialmente y por el usuario correspondiente antes de avanzar.</t>
   </si>
 </sst>
 </file>
@@ -973,7 +1153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1070,11 +1250,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1141,6 +1358,15 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1156,26 +1382,89 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="43">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3065,6 +3354,130 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>438971</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>438211</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14716125" y="762000"/>
+          <a:ext cx="11106971" cy="438211"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>20933</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>330700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>753626</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1734129</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14758515" y="1084326"/>
+          <a:ext cx="3024974" cy="1403429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>438971</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>438211</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14737582" y="753626"/>
+          <a:ext cx="11136279" cy="438211"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B3:G16" totalsRowShown="0">
   <autoFilter ref="B3:G16"/>
@@ -3081,29 +3494,61 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="B9:H18" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="B9:H18" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="B9:H18"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Step" dataDxfId="30"/>
-    <tableColumn id="2" name="Descripción" dataDxfId="29"/>
-    <tableColumn id="3" name="Rol" dataDxfId="28"/>
-    <tableColumn id="4" name="Usuario" dataDxfId="27"/>
-    <tableColumn id="6" name="Proceso Finalizado  " dataDxfId="26"/>
-    <tableColumn id="7" name="Resultados esperados " dataDxfId="25"/>
-    <tableColumn id="8" name="Resultado Obtenido " dataDxfId="24"/>
+    <tableColumn id="1" name="Step" dataDxfId="40"/>
+    <tableColumn id="2" name="Descripción" dataDxfId="39"/>
+    <tableColumn id="3" name="Rol" dataDxfId="38"/>
+    <tableColumn id="4" name="Usuario" dataDxfId="37"/>
+    <tableColumn id="6" name="Proceso Finalizado  " dataDxfId="36"/>
+    <tableColumn id="7" name="Resultados esperados " dataDxfId="35"/>
+    <tableColumn id="8" name="Resultado Obtenido " dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla24" displayName="Tabla24" ref="B4:H9" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla24" displayName="Tabla24" ref="B4:H9" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="B4:H9"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Step" dataDxfId="21"/>
-    <tableColumn id="2" name="Descripción" dataDxfId="20"/>
-    <tableColumn id="3" name="Rol" dataDxfId="19"/>
-    <tableColumn id="4" name="Usuario" dataDxfId="18"/>
+    <tableColumn id="1" name="Step" dataDxfId="31"/>
+    <tableColumn id="2" name="Descripción" dataDxfId="30"/>
+    <tableColumn id="3" name="Rol" dataDxfId="29"/>
+    <tableColumn id="4" name="Usuario" dataDxfId="28"/>
+    <tableColumn id="6" name="Proceso Finalizado  " dataDxfId="27"/>
+    <tableColumn id="7" name="Resultados esperados " dataDxfId="26"/>
+    <tableColumn id="8" name="Resultado Obtenido " dataDxfId="25"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla245" displayName="Tabla245" ref="B4:H12" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="B4:H12"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Step"/>
+    <tableColumn id="2" name="Descripción"/>
+    <tableColumn id="3" name="Rol"/>
+    <tableColumn id="4" name="Usuario"/>
+    <tableColumn id="6" name="Proceso Finalizado  " dataDxfId="22"/>
+    <tableColumn id="7" name="Resultados esperados " dataDxfId="21"/>
+    <tableColumn id="8" name="Resultado Obtenido " dataDxfId="20"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla2456" displayName="Tabla2456" ref="B6:H16" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="B6:H16"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Step"/>
+    <tableColumn id="2" name="Descripción"/>
+    <tableColumn id="3" name="Rol"/>
+    <tableColumn id="4" name="Usuario"/>
     <tableColumn id="6" name="Proceso Finalizado  " dataDxfId="17"/>
     <tableColumn id="7" name="Resultados esperados " dataDxfId="16"/>
     <tableColumn id="8" name="Resultado Obtenido " dataDxfId="15"/>
@@ -3112,9 +3557,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla245" displayName="Tabla245" ref="B4:H12" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="B4:H12"/>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla2457" displayName="Tabla2457" ref="B4:H16" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="B4:H16"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Step"/>
     <tableColumn id="2" name="Descripción"/>
@@ -3128,9 +3573,25 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla2456" displayName="Tabla2456" ref="B6:H16" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B6:H16"/>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla245789" displayName="Tabla245789" ref="B4:H11" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="B4:H11"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Step"/>
+    <tableColumn id="2" name="Descripción"/>
+    <tableColumn id="3" name="Rol"/>
+    <tableColumn id="4" name="Usuario"/>
+    <tableColumn id="6" name="Proceso Finalizado  " dataDxfId="2"/>
+    <tableColumn id="7" name="Resultados esperados " dataDxfId="1"/>
+    <tableColumn id="8" name="Resultado Obtenido " dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla24578" displayName="Tabla24578" ref="B4:H11" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B4:H11"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Step"/>
     <tableColumn id="2" name="Descripción"/>
@@ -3139,22 +3600,6 @@
     <tableColumn id="6" name="Proceso Finalizado  " dataDxfId="7"/>
     <tableColumn id="7" name="Resultados esperados " dataDxfId="6"/>
     <tableColumn id="8" name="Resultado Obtenido " dataDxfId="5"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla2457" displayName="Tabla2457" ref="B4:H16" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="B4:H16"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="Step"/>
-    <tableColumn id="2" name="Descripción"/>
-    <tableColumn id="3" name="Rol"/>
-    <tableColumn id="4" name="Usuario"/>
-    <tableColumn id="6" name="Proceso Finalizado  " dataDxfId="2"/>
-    <tableColumn id="7" name="Resultados esperados " dataDxfId="1"/>
-    <tableColumn id="8" name="Resultado Obtenido " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3423,10 +3868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+    <sheetView topLeftCell="A42" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3438,12 +3883,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -3458,7 +3903,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="26">
+      <c r="A4" s="29">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -3472,7 +3917,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -3484,7 +3929,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="27"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
@@ -3502,12 +3947,12 @@
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
     </row>
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
@@ -3522,7 +3967,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="26">
+      <c r="A10" s="29">
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -3536,7 +3981,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="5" t="s">
         <v>1</v>
       </c>
@@ -3548,7 +3993,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="27"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="6" t="s">
         <v>2</v>
       </c>
@@ -3572,12 +4017,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
     </row>
     <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
@@ -3592,7 +4037,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="26">
+      <c r="A17" s="29">
         <v>3</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -3606,7 +4051,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="5" t="s">
         <v>1</v>
       </c>
@@ -3618,7 +4063,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="27"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="6" t="s">
         <v>2</v>
       </c>
@@ -3631,12 +4076,12 @@
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="33"/>
     </row>
     <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
@@ -3651,7 +4096,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="26">
+      <c r="A23" s="29">
         <v>3</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -3665,7 +4110,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="26"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="5" t="s">
         <v>1</v>
       </c>
@@ -3677,7 +4122,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="27"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="6" t="s">
         <v>2</v>
       </c>
@@ -3690,12 +4135,12 @@
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="30"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
     </row>
     <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
@@ -3710,7 +4155,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="26">
+      <c r="A29" s="29">
         <v>3</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -3724,7 +4169,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="26"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="5" t="s">
         <v>1</v>
       </c>
@@ -3736,7 +4181,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="27"/>
+      <c r="A31" s="30"/>
       <c r="B31" s="6" t="s">
         <v>2</v>
       </c>
@@ -3749,12 +4194,12 @@
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="30"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="33"/>
     </row>
     <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
@@ -3769,7 +4214,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="26">
+      <c r="A35" s="29">
         <v>3</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -3783,7 +4228,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="26"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="5" t="s">
         <v>1</v>
       </c>
@@ -3795,7 +4240,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="27"/>
+      <c r="A37" s="30"/>
       <c r="B37" s="6" t="s">
         <v>2</v>
       </c>
@@ -3806,13 +4251,132 @@
         <v>144</v>
       </c>
     </row>
+    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="33"/>
+    </row>
+    <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="25"/>
+      <c r="D40" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="29">
+        <v>3</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A42" s="29"/>
+      <c r="B42" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="30"/>
+      <c r="B43" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="33"/>
+    </row>
+    <row r="46" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="25"/>
+      <c r="D46" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="29">
+        <v>3</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="29"/>
+      <c r="B48" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" s="38" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="30"/>
+      <c r="B49" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>164</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="B9:C9"/>
+  <mergeCells count="24">
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A10:A12"/>
@@ -3826,6 +4390,11 @@
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967295" r:id="rId1"/>
@@ -4797,7 +5366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView topLeftCell="D10" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
@@ -5398,4 +5967,358 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="37.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="45.140625" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" customWidth="1"/>
+    <col min="8" max="8" width="36.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="2:8" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="10">
+        <v>2</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="2:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10">
+        <v>3</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="10">
+        <v>4</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="2:8" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="10">
+        <v>5</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="2:8" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="2:8" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="37.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="45.140625" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" customWidth="1"/>
+    <col min="8" max="8" width="36.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="2:8" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="10">
+        <v>2</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="2:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10">
+        <v>3</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="10">
+        <v>4</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="2:8" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="10">
+        <v>5</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="2:8" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="2:8" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/PABMI/0 PABI/ROLES/Casos de Prueba Roles Inmuebles.xlsx
+++ b/PABMI/0 PABI/ROLES/Casos de Prueba Roles Inmuebles.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Historias Usuario" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="Roles Baja Compra Directa " sheetId="7" r:id="rId5"/>
     <sheet name="Roles Baja licitación pública" sheetId="8" r:id="rId6"/>
     <sheet name="Roles Permuta " sheetId="10" r:id="rId7"/>
-    <sheet name="Roles comodato  (2)" sheetId="12" r:id="rId8"/>
-    <sheet name="Roles modificaciones " sheetId="11" r:id="rId9"/>
+    <sheet name="Roles comodato  (3)" sheetId="13" r:id="rId8"/>
+    <sheet name="Roles comodato  Multiple" sheetId="12" r:id="rId9"/>
+    <sheet name="Roles modificaciones " sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -516,8 +517,67 @@
 </comments>
 </file>
 
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Iris Lechuga</author>
+  </authors>
+  <commentList>
+    <comment ref="F4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Iris Lechuga:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Verificar que cada paso del proceso haya sido completado correctamente por el rol asignado antes de avanzar al siguiente paso.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Iris Lechuga:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+En cada paso, solo el usuario asignado a ese rol debe tener habilitados los botones y campos necesarios para completar la tarea.
+Los demás usuarios no tendrán acceso a estos campos hasta que el proceso avance al siguiente paso correspondiente a su rol.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="166">
   <si>
     <t>ID</t>
   </si>
@@ -1051,6 +1111,9 @@
   </si>
   <si>
     <t>Cada paso debe completarse secuencialmente y por el usuario correspondiente antes de avanzar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aurora.ramos </t>
   </si>
 </sst>
 </file>
@@ -1355,6 +1418,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1388,23 +1463,41 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="48">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3422,8 +3515,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14758515" y="1084326"/>
-          <a:ext cx="3024974" cy="1403429"/>
+          <a:off x="14737058" y="1092700"/>
+          <a:ext cx="3018693" cy="1403429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3436,6 +3529,87 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>438971</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>438211</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14716125" y="762000"/>
+          <a:ext cx="11106971" cy="438211"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>55780</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>191310</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>21827</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1594739</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15539713" y="934725"/>
+          <a:ext cx="3032632" cy="1403429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3494,29 +3668,45 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="B9:H18" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="B9:H18" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="B9:H18"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Step" dataDxfId="40"/>
-    <tableColumn id="2" name="Descripción" dataDxfId="39"/>
-    <tableColumn id="3" name="Rol" dataDxfId="38"/>
-    <tableColumn id="4" name="Usuario" dataDxfId="37"/>
-    <tableColumn id="6" name="Proceso Finalizado  " dataDxfId="36"/>
-    <tableColumn id="7" name="Resultados esperados " dataDxfId="35"/>
-    <tableColumn id="8" name="Resultado Obtenido " dataDxfId="34"/>
+    <tableColumn id="1" name="Step" dataDxfId="45"/>
+    <tableColumn id="2" name="Descripción" dataDxfId="44"/>
+    <tableColumn id="3" name="Rol" dataDxfId="43"/>
+    <tableColumn id="4" name="Usuario" dataDxfId="42"/>
+    <tableColumn id="6" name="Proceso Finalizado  " dataDxfId="41"/>
+    <tableColumn id="7" name="Resultados esperados " dataDxfId="40"/>
+    <tableColumn id="8" name="Resultado Obtenido " dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla24" displayName="Tabla24" ref="B4:H9" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla24" displayName="Tabla24" ref="B4:H9" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="B4:H9"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Step" dataDxfId="31"/>
-    <tableColumn id="2" name="Descripción" dataDxfId="30"/>
-    <tableColumn id="3" name="Rol" dataDxfId="29"/>
-    <tableColumn id="4" name="Usuario" dataDxfId="28"/>
+    <tableColumn id="1" name="Step" dataDxfId="36"/>
+    <tableColumn id="2" name="Descripción" dataDxfId="35"/>
+    <tableColumn id="3" name="Rol" dataDxfId="34"/>
+    <tableColumn id="4" name="Usuario" dataDxfId="33"/>
+    <tableColumn id="6" name="Proceso Finalizado  " dataDxfId="32"/>
+    <tableColumn id="7" name="Resultados esperados " dataDxfId="31"/>
+    <tableColumn id="8" name="Resultado Obtenido " dataDxfId="30"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla245" displayName="Tabla245" ref="B4:H12" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="B4:H12"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Step"/>
+    <tableColumn id="2" name="Descripción"/>
+    <tableColumn id="3" name="Rol"/>
+    <tableColumn id="4" name="Usuario"/>
     <tableColumn id="6" name="Proceso Finalizado  " dataDxfId="27"/>
     <tableColumn id="7" name="Resultados esperados " dataDxfId="26"/>
     <tableColumn id="8" name="Resultado Obtenido " dataDxfId="25"/>
@@ -3525,9 +3715,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla245" displayName="Tabla245" ref="B4:H12" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="B4:H12"/>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla2456" displayName="Tabla2456" ref="B6:H16" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="B6:H16"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Step"/>
     <tableColumn id="2" name="Descripción"/>
@@ -3541,9 +3731,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla2456" displayName="Tabla2456" ref="B6:H16" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="B6:H16"/>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla2457" displayName="Tabla2457" ref="B4:H16" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="B4:H16"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Step"/>
     <tableColumn id="2" name="Descripción"/>
@@ -3557,24 +3747,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla2457" displayName="Tabla2457" ref="B4:H16" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="B4:H16"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="Step"/>
-    <tableColumn id="2" name="Descripción"/>
-    <tableColumn id="3" name="Rol"/>
-    <tableColumn id="4" name="Usuario"/>
-    <tableColumn id="6" name="Proceso Finalizado  " dataDxfId="12"/>
-    <tableColumn id="7" name="Resultados esperados " dataDxfId="11"/>
-    <tableColumn id="8" name="Resultado Obtenido " dataDxfId="10"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla245789" displayName="Tabla245789" ref="B4:H11" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla24578910" displayName="Tabla24578910" ref="B4:H11" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="B4:H11"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Step"/>
@@ -3590,6 +3764,22 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla245789" displayName="Tabla245789" ref="B4:H11" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="B4:H11"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Step"/>
+    <tableColumn id="2" name="Descripción"/>
+    <tableColumn id="3" name="Rol"/>
+    <tableColumn id="4" name="Usuario"/>
+    <tableColumn id="6" name="Proceso Finalizado  " dataDxfId="12"/>
+    <tableColumn id="7" name="Resultados esperados " dataDxfId="11"/>
+    <tableColumn id="8" name="Resultado Obtenido " dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla24578" displayName="Tabla24578" ref="B4:H11" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="B4:H11"/>
   <tableColumns count="7">
@@ -3870,7 +4060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView topLeftCell="A33" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
@@ -3883,27 +4073,27 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="29">
+      <c r="A4" s="33">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -3917,7 +4107,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -3929,7 +4119,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="30"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
@@ -3947,27 +4137,27 @@
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
     </row>
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="25"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="29">
+      <c r="A10" s="33">
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -3981,7 +4171,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="5" t="s">
         <v>1</v>
       </c>
@@ -3993,7 +4183,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="30"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="6" t="s">
         <v>2</v>
       </c>
@@ -4017,27 +4207,27 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="37"/>
     </row>
     <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="29">
+      <c r="A17" s="33">
         <v>3</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -4051,7 +4241,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="5" t="s">
         <v>1</v>
       </c>
@@ -4063,7 +4253,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="30"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="6" t="s">
         <v>2</v>
       </c>
@@ -4076,27 +4266,27 @@
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="37"/>
     </row>
     <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="25"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="29">
+      <c r="A23" s="33">
         <v>3</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -4110,7 +4300,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="5" t="s">
         <v>1</v>
       </c>
@@ -4122,7 +4312,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="30"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="6" t="s">
         <v>2</v>
       </c>
@@ -4135,27 +4325,27 @@
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="37"/>
     </row>
     <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="25"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="29">
+      <c r="A29" s="33">
         <v>3</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -4169,7 +4359,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="29"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="5" t="s">
         <v>1</v>
       </c>
@@ -4181,7 +4371,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="30"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="6" t="s">
         <v>2</v>
       </c>
@@ -4194,27 +4384,27 @@
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="33"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="37"/>
     </row>
     <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="25"/>
+      <c r="C34" s="29"/>
       <c r="D34" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="29">
+      <c r="A35" s="33">
         <v>3</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -4228,7 +4418,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="29"/>
+      <c r="A36" s="33"/>
       <c r="B36" s="5" t="s">
         <v>1</v>
       </c>
@@ -4240,7 +4430,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="30"/>
+      <c r="A37" s="34"/>
       <c r="B37" s="6" t="s">
         <v>2</v>
       </c>
@@ -4253,27 +4443,27 @@
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="33"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="37"/>
     </row>
     <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="25"/>
+      <c r="C40" s="29"/>
       <c r="D40" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="29">
+      <c r="A41" s="33">
         <v>3</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -4282,12 +4472,12 @@
       <c r="C41" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="D41" s="36" t="s">
+      <c r="D41" s="25" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="29"/>
+      <c r="A42" s="33"/>
       <c r="B42" s="5" t="s">
         <v>1</v>
       </c>
@@ -4299,7 +4489,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="30"/>
+      <c r="A43" s="34"/>
       <c r="B43" s="6" t="s">
         <v>2</v>
       </c>
@@ -4312,27 +4502,27 @@
     </row>
     <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="33"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="37"/>
     </row>
     <row r="46" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="25"/>
+      <c r="C46" s="29"/>
       <c r="D46" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="29">
+      <c r="A47" s="33">
         <v>3</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -4341,31 +4531,31 @@
       <c r="C47" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="D47" s="37" t="s">
+      <c r="D47" s="26" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="29"/>
+      <c r="A48" s="33"/>
       <c r="B48" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C48" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="D48" s="38" t="s">
+      <c r="D48" s="27" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="30"/>
+      <c r="A49" s="34"/>
       <c r="B49" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C49" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="D49" s="39" t="s">
+      <c r="D49" s="28" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4401,11 +4591,188 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H11"/>
+  <sheetViews>
+    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="37.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="45.140625" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" customWidth="1"/>
+    <col min="8" max="8" width="36.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="2:8" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="10">
+        <v>2</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="2:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10">
+        <v>3</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="10">
+        <v>4</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="2:8" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="10">
+        <v>5</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="2:8" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="2:8" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I16"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
@@ -4420,26 +4787,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -4682,7 +5049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -4697,24 +5064,24 @@
   </cols>
   <sheetData>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
     </row>
     <row r="9" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
@@ -4945,7 +5312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="B4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -4960,24 +5327,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
     </row>
     <row r="4" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
@@ -5139,24 +5506,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
     </row>
     <row r="4" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
@@ -5382,24 +5749,24 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
@@ -5666,24 +6033,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
@@ -5973,8 +6340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5988,24 +6355,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
@@ -6041,7 +6408,7 @@
         <v>39</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="F5" s="24"/>
       <c r="G5" s="10"/>
@@ -6058,7 +6425,7 @@
         <v>39</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="10"/>
@@ -6150,8 +6517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6165,24 +6532,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="B2" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
@@ -6218,7 +6585,7 @@
         <v>39</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="F5" s="24"/>
       <c r="G5" s="10"/>
@@ -6229,13 +6596,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="10"/>
@@ -6246,13 +6613,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="10"/>
